--- a/outputs/PATTAYA5.xlsx
+++ b/outputs/PATTAYA5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is making travel arrangements for the ICSE 2019 conference, and knowing where people are staying is a typical part of planning such arrangements. This would help her in deciding her accommodation options and ensuring she stays in a convenient location. Abi's comprehensive information processing style would motivate her to gather as much relevant information as possible, which includes knowing where other attendees are staying.</t>
+Facets: Motivations, Information Processing Style
+Why: Abi is motivated to attend the conference and make travel arrangements, which includes knowing where people are staying. This information is crucial for her to plan her accommodation effectively. Additionally, Abi's comprehensive information processing style means she would consider gathering all relevant details, including where other attendees are staying, as part of her planning process.</t>
         </is>
       </c>
     </row>
@@ -434,8 +434,8 @@
       <c r="A2" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page has a clear "Attending" section listed under the header, which is relevant to Abi's subgoal of making travel arrangements and knowing where people are staying. Abi's comprehensive information processing style means she will read through the available options and identify "Attending" as a logical choice. Additionally, her preference for process-oriented learning will lead her to follow this clear and straightforward path to find the information she needs.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Attending" section is clearly visible on the page, and it is reasonable for Abi to infer that information about where people are staying might be found under this section. Abi's comprehensive information processing style would lead her to explore this section to gather relevant details for her travel arrangements. Additionally, her motivation to attend the conference and make necessary arrangements supports her taking this action.</t>
         </is>
       </c>
     </row>
@@ -443,8 +443,8 @@
       <c r="A3" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: Upon clicking "Attending," Abi is presented with a dropdown menu containing several options. While "Accommodation" is listed, it is not immediately clear that this is the right choice for finding out where people are staying. Abi's comprehensive information processing style means she might hesitate due to the number of options available, and her low computer self-efficacy may make her unsure about which option to select without more explicit guidance. Additionally, Abi's preference for process-oriented learning would benefit from more clear and direct instructions on where to find the specific information she's looking for.</t>
+Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
+Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While "Accommodation" is listed, it is not immediately clear that this is where she will find information about where people are staying. Abi's low computer self-efficacy and risk-averse nature might make her hesitant to click on an option without being certain it will provide the information she needs. Additionally, her comprehensive information processing style means she would prefer more explicit guidance to ensure she is making progress toward her goal. The dropdown menu might not provide enough clarity for her to feel confident she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -452,8 +452,8 @@
       <c r="A4" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page has a clear dropdown menu under "Attending" with the option "Accommodation" listed, which directly relates to Abi's subgoal of finding out where people are staying. Abi's comprehensive information processing style means she will read through the available options and identify "Accommodation" as the relevant choice. Additionally, her preference for process-oriented learning will lead her to follow this clear and straightforward path to find the necessary information. The dropdown menu is intuitive enough for Abi to understand and take this action.</t>
+Facets: Information Processing Style, Motivations
+Why: The dropdown menu under "Attending" clearly lists "Accommodation" as an option. Given Abi's motivation to find out where people are staying and her comprehensive information processing style, she would recognize that clicking on "Accommodation" is a logical next step to gather the necessary information. The page provides a clear and direct path for her to follow, making it likely that she will take this action.</t>
         </is>
       </c>
     </row>
@@ -461,8 +461,8 @@
       <c r="A5" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including the name, location, amenities, and how to book a room. This page clearly addresses Abi's subgoal of finding out where people are staying. The information is presented in a comprehensive manner, aligning with Abi's information processing style, and the detailed descriptions and instructions cater to her preference for process-oriented learning. Consequently, Abi will know that she is making progress toward her goal and will have all the necessary information to make her travel arrangements.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This aligns with Abi's comprehensive information processing style, as the page offers a thorough overview of the accommodation options. Additionally, the information is relevant to her goal of knowing where people are staying, thus confirming that she is making progress toward her goal. The page is well-structured and provides all the necessary details, making it easy for Abi to understand and use the information.</t>
         </is>
       </c>
     </row>
@@ -470,8 +470,8 @@
       <c r="A6" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page provides a clear overview of the hotel's details, but to gather all the information, scrolling down is a standard action. Abi, with her comprehensive information processing style, will be motivated to scroll to ensure she has not missed any pertinent information. The page layout is straightforward and encourages further exploration, making it intuitive for Abi to scroll down for complete details about the accommodation options.</t>
+Facets: Information Processing Style
+Why: The page is well-organized and provides a clear overview of the accommodation details. Abi, with her comprehensive information processing style, would naturally scroll down to ensure she has gathered all relevant information. The page layout and content are conducive to scrolling, and it is a common action to take when seeking more information. Therefore, Abi will know to scroll down to continue reading and gather all the necessary details about the accommodation.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: Scrolling down the page, Abi will find comprehensive information about the accommodation options, including hotel details, registration process, benefits of staying at the conference hotel, and contact information. This aligns with Abi's comprehensive information processing style, ensuring that she gathers all relevant details to make informed travel arrangements. The information is well-organized and clearly presented, which suits her preference for process-oriented learning. Therefore, Abi will know she did the right thing and is making progress toward her goal of knowing where people are staying.</t>
+Facets: Information Processing Style, Motivations
+Why: After scrolling, Abi will find detailed information about the conference hotel, including its name, location, amenities, and the benefits of staying there. This comprehensive information aligns with Abi's information processing style, ensuring she has all the details she needs. The page is well-structured and provides clear, relevant information, confirming to Abi that she is making progress toward her goal of knowing where people are staying. The content is sufficient for her to make informed travel arrangements.</t>
         </is>
       </c>
     </row>
@@ -488,8 +488,8 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is making travel arrangements for the ICSE 2019 conference, and determining how many days to stay is an essential part of those arrangements. This decision will impact her accommodation booking, travel plans, and overall schedule. Abi's comprehensive information processing style will lead her to consider the full duration of the conference to ensure she doesn't miss any important sessions or networking opportunities, thus aligning with her motivation to attend the conference effectively.</t>
+Facets: Motivations, Information Processing Style
+Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements. Abi's motivation to attend the conference and her comprehensive information processing style would lead her to consider the duration of her stay as an essential step. This decision impacts her accommodation booking, travel plans, and overall schedule, making it a necessary subgoal in achieving her overall use case.</t>
         </is>
       </c>
     </row>
@@ -497,8 +497,8 @@
       <c r="A9" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The page has a navigation bar at the top with a "Program" option, which is relevant to Abi's goal of determining how many days to stay at the conference. Abi's comprehensive information processing style will lead her to explore the "Program" section to gather details about the conference schedule. Her preference for process-oriented learning means she will follow this clear and logical path to find the information she needs about the conference agenda, which will help her decide the duration of her stay.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Program" section is a logical place for Abi to find information about the conference schedule, which will help her determine how many days to stay. Given her motivation to attend the conference and her comprehensive information processing style, Abi would recognize that clicking on "Program" is a necessary step to gather detailed information about the conference events and sessions. The page layout and the presence of the "Program" option make it clear and straightforward for her to take this action.</t>
         </is>
       </c>
     </row>
@@ -506,8 +506,8 @@
       <c r="A10" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Program," Abi is presented with a dropdown menu containing several options such as "Complete Program," "Week Overview," "Industry Program," and more. While these options are relevant, Abi's comprehensive information processing style and low computer self-efficacy might make her unsure about which specific option to choose to find out how many days to stay at the conference. Additionally, without more explicit guidance, her preference for process-oriented learning might not be fully satisfied, leaving her unsure if she is making progress toward her goal. Abi might feel overwhelmed by the number of options and uncertain about which one will provide the specific information she needs.</t>
+Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
+Why: After clicking on "Program," Abi is presented with a dropdown menu with multiple options related to the conference schedule. While these options are relevant, it may not be immediately clear to Abi which specific option will provide the comprehensive information she needs to determine how many days to stay. Abi's low computer self-efficacy and risk-averse nature might make her hesitant to click on an option without being certain it will provide the necessary details. Additionally, her comprehensive information processing style means she would prefer more explicit guidance to ensure she is making progress toward her goal. The dropdown menu might not provide enough clarity for her to feel confident she is on the right track.</t>
         </is>
       </c>
     </row>
@@ -515,8 +515,8 @@
       <c r="A11" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: The "Week Overview" option in the dropdown menu is clearly labeled and intuitively suggests a summary of the conference schedule over the entire week. Abi's comprehensive information processing style will lead her to select this option to get an overall view of the conference duration and activities. Given her preference for process-oriented learning, the label "Week Overview" is sufficiently clear and direct for her to understand that this action will provide the information she needs to determine how many days to stay at the conference.</t>
+Facets: Information Processing Style, Motivations
+Why: The "Week Overview" option in the dropdown menu under "Program" is clearly labeled and suggests that it will provide a summary of the conference schedule for the entire week. Given Abi's motivation to determine how many days to stay at the conference and her comprehensive information processing style, she would recognize that clicking on "Week Overview" is a logical step to gather the necessary details. The page layout and the presence of this specific option make it clear and straightforward for her to take this action.</t>
         </is>
       </c>
     </row>
@@ -524,8 +524,8 @@
       <c r="A12" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 2. Information Processing Style, 5. Learning Style
-Why: After clicking on "Week Overview," Abi lands on a page that provides a detailed visual schedule of the entire conference week. This overview includes the dates and sessions, helping her to easily determine how many days she needs to stay to attend the sessions and events of interest. The layout is clear and comprehensive, aligning with Abi's information processing style. The visual and organized presentation of the schedule suits her process-oriented learning style, making it easy for her to see that she is making progress towards her goal and to gather all the necessary information.</t>
+Facets: Information Processing Style, Motivations
+Why: After clicking on "Week Overview," Abi is presented with a detailed schedule of the conference events for the entire week. This comprehensive overview aligns with Abi's information processing style, providing her with all the necessary details to determine how many days to stay at the conference. The clear layout and color-coded schedule make it easy for her to understand the timing and duration of various events, confirming that she is making progress toward her goal. The page provides all the information she needs to make an informed decision about her stay.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Week Overview" page already provides a comprehensive schedule of the conference, displaying the sessions and events for each day. Abi, with her comprehensive information processing style, should be able to determine how many days to stay based on this information. Going up the page to click on "Tracks" might not be an intuitive next step for her, especially considering her low computer self-efficacy. She might not realize that additional information could be found under "Tracks," and without clear guidance, she might feel uncertain about what to do next. The current page already offers the necessary information for her subgoal, making the action of clicking "Tracks" unnecessary and potentially confusing.</t>
+Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
+Why: The "Week Overview" page already provides a comprehensive schedule of the conference events, which should be sufficient for Abi to determine how many days to stay. The need to go up the page and click on "Tracks" might not be immediately clear to Abi, especially given her low computer self-efficacy and risk-averse nature. She might be hesitant to navigate away from a page that already seems to provide the necessary information. Additionally, her comprehensive information processing style means she would prefer explicit guidance, and the current page does not indicate that additional relevant information can be found under "Tracks." Therefore, Abi might not know to take this action.</t>
         </is>
       </c>
     </row>
@@ -542,8 +542,8 @@
       <c r="A14" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy, 5. Learning Style
-Why: After clicking on "Tracks," Abi is presented with another dropdown menu containing a list of various conference tracks. While this information might be useful, it is not immediately clear how it helps her determine how many days to stay at the conference. Abi's comprehensive information processing style and low computer self-efficacy may lead her to feel uncertain about what to do next. Additionally, her preference for process-oriented learning would benefit from more explicit guidance. The dropdown menu adds complexity rather than directly addressing her subgoal, making it difficult for Abi to know if she is making progress toward her goal.</t>
+Facets: Computer Self-Efficacy, Information Processing Style, Attitude Towards Risk
+Why: After clicking on "Tracks," Abi is presented with a dropdown menu listing various tracks and co-hosted conferences. While this information is relevant, it may not be immediately clear to Abi how it helps her determine how many days to stay at the conference. Abi's low computer self-efficacy and risk-averse nature might make her hesitant to explore further without clear guidance. Additionally, her comprehensive information processing style means she would prefer more explicit instructions or a direct link to a detailed schedule. The dropdown menu might not provide enough clarity for her to feel confident she is making progress toward her goal.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA5.xlsx
+++ b/outputs/PATTAYA5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is making travel arrangements and would logically want to know where other attendees are staying to make informed decisions about her own accommodation. This aligns with her motivation to accomplish her travel planning tasks effectively. Additionally, her comprehensive information processing style would lead her to gather all relevant details, including where others are staying, to form a complete understanding of her travel plans.</t>
+Facets: 1. Motivations
+Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodation and logistics, aligning with her motivation to attend the conference.</t>
         </is>
       </c>
     </row>
@@ -435,7 +435,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and prominently displayed on the page, making it easy for Abi to identify it as a relevant link for her subgoal of finding out where people are staying. This aligns with her motivation to gather necessary travel information. Additionally, the clear labeling supports her comprehensive information processing style, as it provides a straightforward path to potentially relevant information without requiring her to tinker or guess.</t>
+Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and where people are staying. This aligns with Abi's motivation to make travel arrangements and her comprehensive information processing style, as she would logically explore this section to gather necessary details.</t>
         </is>
       </c>
     </row>
@@ -444,7 +444,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Attending," Abi is presented with a dropdown menu with multiple options. While "Accommodation" is listed, it is not immediately clear which option will provide the specific information she needs about where people are staying. This could be overwhelming for Abi, who prefers a comprehensive and clear path to information. Additionally, her low computer self-efficacy might make her hesitant to click on multiple options without clear guidance, leading to uncertainty about whether she is making progress toward her goal.</t>
+Why: After clicking "Attending," Abi is presented with a dropdown menu with multiple options, but it doesn't directly provide information about where people are staying. Abi might not immediately know which option to choose next, as the menu items are not explicitly clear about accommodations. This could hinder her progress and make her unsure if she's on the right track.</t>
         </is>
       </c>
     </row>
@@ -453,97 +453,97 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option is clearly listed under the "Attending" dropdown menu, making it easy for Abi to identify it as the next logical step in her search for information about where people are staying. This aligns with her motivation to gather necessary travel information. Additionally, the clear labeling supports her comprehensive information processing style, as it provides a straightforward path to potentially relevant information without requiring her to tinker or guess.</t>
+Why: The "Accommodation" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out where people are staying. This aligns with her motivation to make travel arrangements and her comprehensive information processing style, as it logically leads to the information she needs.</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its location and amenities. This directly addresses her subgoal of knowing where people are staying, confirming she is making progress toward her goal. The comprehensive details align with her information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page provides detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she gathers all relevant details about where people are staying.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal of knowing where people are staying, and the comprehensive details align with her information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi's motivation to attend ICSE 2019 would naturally include planning the duration of her stay to align with the conference schedule and her personal commitments.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the conference schedule. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, as she would seek detailed information about the event's duration and activities.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking on "Program," Abi sees a dropdown with detailed options, including specific dates and program overviews. This confirms she is making progress toward determining how many days to stay, as it provides the necessary schedule information. This aligns with her motivation and comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" option is clearly labeled and likely provides a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and her comprehensive information processing style, as she would seek an overview to make informed decisions.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal. The detailed overview aligns with her motivation and comprehensive information processing style.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page does not provide clear guidance or indication that clicking on "Tracks" will help determine how many days to stay. Abi might not feel confident about this action without explicit information, and her process-oriented learning style means she prefers clear instructions over exploration.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While the page provides detailed information about the conference hotel and its amenities, it does not explicitly state where other attendees are staying. Abi, with her comprehensive information processing style, would need clear and specific information to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to infer or assume that this is the only or primary accommodation option for attendees. Therefore, she may not feel certain that she has all the information she needs about where people are staying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: Scrolling down the page is a natural action for Abi to take in her comprehensive information processing style. The page is well-structured and provides detailed information about the conference hotel, which is relevant to her subgoal of finding out where people are staying. Scrolling will allow her to see if there is additional information further down the page that might help her achieve her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: While scrolling down the page provides more detailed information about the conference hotel, it still does not explicitly state where other attendees are staying. Abi, with her comprehensive information processing style, would need clear and specific information to feel confident that she is making progress toward her goal. Additionally, her low computer self-efficacy might make her hesitant to infer or assume that this is the only or primary accommodation option for attendees. Therefore, she may not feel certain that she has all the information she needs about where people are staying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Deciding how many days to stay at the conference is a crucial part of making travel arrangements, which is Abi's overall use case. This decision impacts her accommodation booking, travel plans, and overall schedule. Given her motivation to effectively plan her trip and her comprehensive information processing style, Abi would consider determining the duration of her stay as an essential step toward achieving her overall goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Program" option is clearly visible in the navigation menu at the top of the page. Abi, who is motivated to plan her travel effectively, would recognize that the conference program will provide essential information about the schedule and events, helping her determine how many days to stay. This aligns with her comprehensive information processing style, as she would seek out detailed information to make an informed decision. The page is straightforward and provides a clear path to the information she needs, making it suitable for her to take this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Program," Abi is presented with a dropdown menu with multiple options related to the conference program. While these options are relevant, it is not immediately clear which one will provide the specific information she needs to determine how many days to stay. This could be overwhelming for Abi, who prefers a comprehensive and clear path to information. Additionally, her low computer self-efficacy might make her hesitant to click on multiple options without clear guidance, leading to uncertainty about whether she is making progress toward her goal. Therefore, she may not feel certain that she has all the information she needs about the conference schedule.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly listed in the dropdown menu under "Program," making it easy for Abi to identify it as a relevant link for her subgoal of determining how many days to stay at the conference. This aligns with her motivation to gather necessary travel information. Additionally, the clear labeling supports her comprehensive information processing style, as it provides a straightforward path to potentially relevant information without requiring her to tinker or guess. The page is straightforward and provides a clear path to the information she needs, making it suitable for her to take this action.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear and detailed schedule of the conference events, workshops, and main conference sessions across the days. This comprehensive view allows Abi to see the entire conference timeline at a glance, helping her determine how many days she needs to stay to attend the sessions and events she is interested in. This aligns with her motivation to effectively plan her travel and her comprehensive information processing style, as it provides all the necessary information in a structured and easy-to-understand format. Therefore, Abi will know that she did the right thing and is making progress toward her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The "Week Overview" page already provides a comprehensive schedule of the conference, which should be sufficient for Abi to determine how many days to stay. The need to go back up the page and click on "Tracks" is not immediately clear or necessary for achieving her subgoal. This action might confuse Abi, who prefers a clear and straightforward path to information. Additionally, her low computer self-efficacy might make her hesitant to navigate away from a page that already seems to provide relevant information. Therefore, she may not know that this action is necessary or beneficial for her goal.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking on "Tracks," Abi is presented with a dropdown menu with multiple options related to different tracks and sessions at the conference. While these options are relevant, it is not immediately clear which one will provide the specific information she needs to determine how many days to stay. This could be overwhelming for Abi, who prefers a comprehensive and clear path to information. Additionally, her low computer self-efficacy might make her hesitant to click on multiple options without clear guidance, leading to uncertainty about whether she is making progress toward her goal. Therefore, she may not feel certain that she has all the information she needs about the conference schedule.</t>
+Why: The dropdown menu under "Tracks" provides a list of options, but it doesn't directly indicate how it will help Abi determine the number of days to stay. Without clear guidance or a direct link to the schedule, Abi might not feel confident that she is making progress toward her goal. The lack of explicit information can be confusing for her comprehensive information processing style.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA5.xlsx
+++ b/outputs/PATTAYA5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations
-Why: Abi is making travel arrangements to attend ICSE 2019, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodation and logistics, aligning with her motivation to attend the conference.</t>
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. The page provides links under "Attending," including "Accommodation," which aligns with her comprehensive information processing style. This suggests she would think of this as a step toward achieving her overall goal of attending the conference.</t>
         </is>
       </c>
     </row>
@@ -435,115 +435,115 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Attending" section is clearly labeled and likely contains relevant information about accommodations and where people are staying. This aligns with Abi's motivation to make travel arrangements and her comprehensive information processing style, as she would logically explore this section to gather necessary details.</t>
+Why: The page clearly lists "Attending" with relevant links, including "Accommodation," which aligns with Abi's goal of finding out where people are staying. The organization of the page supports her comprehensive information processing style, making it straightforward for her to know what to do at this step.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation confirms she is making progress toward her goal and provides the necessary information to proceed.</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu under "Attending" clearly lists "Accommodation," which directly relates to Abi's goal of finding out where people are staying. The page is straightforward and provides the necessary information for her to take this action confidently.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This aligns with her goal of finding out where people are staying and provides comprehensive information, confirming she is making progress toward her goal.</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 2. Information Processing Style
+Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she will likely scroll to ensure she gathers all necessary details about where people are staying.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration, benefits of staying at the conference hotel, and the address. This confirms she is making progress toward her goal and provides all the information she needs about where people are staying.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi is motivated to attend and would consider the conference schedule and her travel plans, aligning with her comprehensive information processing style. This step is essential for achieving her overall goal of attending the conference.</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The page is focused on accommodation details and doesn't provide direct guidance or links to the conference program. Abi might not feel confident about what to do next without explicit instructions or a clear path to find the program information, which is necessary to determine how many days to stay.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: After clicking "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This provides a clear path to understanding the conference schedule, helping her determine how many days to stay. This confirms she is making progress toward her goal and provides the necessary information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The dropdown menu under "Program" includes "Week Overview," which is relevant for understanding the conference schedule. This option aligns with Abi's goal of determining how many days to stay, and the page provides a clear path to the information she needs.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Week Overview" page provides a clear schedule of events and sessions throughout the conference week. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing all the necessary information.</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Answer: NO
+Facets: 4. Computer Self-Efficacy, 5. Learning Style
+Why: The "Week Overview" page already provides a comprehensive schedule, and there is no clear indication that clicking on "Tracks" would provide additional necessary information for determining how many days to stay. Abi might not feel confident about what to do next without explicit instructions or a clear path.</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: After clicking "Attending," Abi is presented with a dropdown menu with multiple options, but it doesn't directly provide information about where people are staying. Abi might not immediately know which option to choose next, as the menu items are not explicitly clear about accommodations. This could hinder her progress and make her unsure if she's on the right track.</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Accommodation" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out where people are staying. This aligns with her motivation to make travel arrangements and her comprehensive information processing style, as it logically leads to the information she needs.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its location and amenities. This directly addresses her subgoal of knowing where people are staying, confirming she is making progress toward her goal. The comprehensive details align with her information processing style.</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 2. Information Processing Style
-Why: The page provides detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she is likely to scroll to ensure she gathers all relevant details about where people are staying.</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal of knowing where people are staying, and the comprehensive details align with her information processing style.</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi's motivation to attend ICSE 2019 would naturally include planning the duration of her stay to align with the conference schedule and her personal commitments.</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Clicking on "Program" is a logical step for Abi to determine how many days to stay, as it likely contains the conference schedule. This aligns with her motivation to plan her trip effectively and her comprehensive information processing style, as she would seek detailed information about the event's duration and activities.</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking on "Program," Abi sees a dropdown with detailed options, including specific dates and program overviews. This confirms she is making progress toward determining how many days to stay, as it provides the necessary schedule information. This aligns with her motivation and comprehensive information processing style.</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" option is clearly labeled and likely provides a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and her comprehensive information processing style, as she would seek an overview to make informed decisions.</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events across the conference days. This helps Abi determine how many days to stay, confirming she is making progress toward her goal. The detailed overview aligns with her motivation and comprehensive information processing style.</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page does not provide clear guidance or indication that clicking on "Tracks" will help determine how many days to stay. Abi might not feel confident about this action without explicit information, and her process-oriented learning style means she prefers clear instructions over exploration.</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Answer: NO
-Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: The dropdown menu under "Tracks" provides a list of options, but it doesn't directly indicate how it will help Abi determine the number of days to stay. Without clear guidance or a direct link to the schedule, Abi might not feel confident that she is making progress toward her goal. The lack of explicit information can be confusing for her comprehensive information processing style.</t>
+Why: Clicking on "Tracks" leads to a dropdown with many options, but it doesn't directly provide information about the duration of the conference or help determine how many days to stay. Abi might not feel she is making progress toward her goal, as the information is not clearly aligned with her specific need.</t>
         </is>
       </c>
     </row>

--- a/outputs/PATTAYA5.xlsx
+++ b/outputs/PATTAYA5.xlsx
@@ -425,8 +425,8 @@
       <c r="A1" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Abi is motivated to attend the conference and would likely consider knowing where people are staying as part of her travel arrangements. The page provides links under "Attending," including "Accommodation," which aligns with her comprehensive information processing style. This suggests she would think of this as a step toward achieving her overall goal of attending the conference.</t>
+Facets: 1. Motivations
+Why: Abi is making travel arrangements for the conference, and knowing where people are staying is a logical step in planning her trip. This information can help her decide on accommodations and logistics, aligning with her motivation to attend the conference.</t>
         </is>
       </c>
     </row>
@@ -435,16 +435,16 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The page clearly lists "Attending" with relevant links, including "Accommodation," which aligns with Abi's goal of finding out where people are staying. The organization of the page supports her comprehensive information processing style, making it straightforward for her to know what to do at this step.</t>
+Why: The "Attending" section is clearly labeled and relevant to Abi's goal of making travel arrangements. It suggests information related to attendance, which aligns with her motivation to find out where people are staying. The page layout is straightforward, making it easy for Abi to identify this as the next step.</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Attending," Abi sees a dropdown menu with options like "Accommodation," which directly relates to her goal of finding out where people are staying. This clear navigation confirms she is making progress toward her goal and provides the necessary information to proceed.</t>
+          <t>Answer: NO
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: After clicking "Attending," Abi is presented with a dropdown menu with multiple options, but it doesn't directly provide information about where people are staying. Abi might not immediately know which option to choose next, as the information is not clearly laid out. This could lead to confusion, as she prefers comprehensive information and may lack confidence in navigating unfamiliar options.</t>
         </is>
       </c>
     </row>
@@ -453,7 +453,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Attending" clearly lists "Accommodation," which directly relates to Abi's goal of finding out where people are staying. The page is straightforward and provides the necessary information for her to take this action confidently.</t>
+Why: The "Accommodation" option in the dropdown menu is clearly labeled and directly relevant to Abi's goal of finding out where people are staying. This aligns with her motivation to make travel arrangements and provides a clear next step, making it easy for her to proceed confidently.</t>
         </is>
       </c>
     </row>
@@ -462,7 +462,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Accommodation," Abi lands on a page with detailed information about the conference hotel, including its location, amenities, and registration details. This aligns with her goal of finding out where people are staying and provides comprehensive information, confirming she is making progress toward her goal.</t>
+Why: After clicking on "Accommodation," Abi lands on a page that provides detailed information about the conference hotel, including its location and amenities. This directly addresses her subgoal of knowing where people are staying, confirming she is making progress toward her goal. The information is comprehensive and clearly presented, aligning with her need for detailed information.</t>
         </is>
       </c>
     </row>
@@ -471,7 +471,7 @@
         <is>
           <t>Answer: YES
 Facets: 2. Information Processing Style
-Why: The page contains detailed information about the accommodation, and scrolling is a natural action to view all the content. Abi's comprehensive information processing style means she will likely scroll to ensure she gathers all necessary details about where people are staying.</t>
+Why: The page provides detailed information about the accommodation, but scrolling may reveal additional details or context. Abi's comprehensive information processing style means she is likely to scroll to ensure she has all the necessary information, making this action intuitive for her.</t>
         </is>
       </c>
     </row>
@@ -479,8 +479,8 @@
       <c r="A7" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration, benefits of staying at the conference hotel, and the address. This confirms she is making progress toward her goal and provides all the information she needs about where people are staying.</t>
+Facets: 2. Information Processing Style
+Why: By scrolling, Abi can view all the detailed information about the accommodation, including hotel registration and benefits of staying at the conference hotel. This confirms she is making progress toward her goal of knowing where people are staying, as the page provides comprehensive details that align with her information processing style.</t>
         </is>
       </c>
     </row>
@@ -488,17 +488,17 @@
       <c r="A8" t="inlineStr">
         <is>
           <t>Answer: YES
-Facets: 1. Motivations, 2. Information Processing Style
-Why: Deciding how many days to stay is a crucial part of making travel arrangements for a conference. Abi is motivated to attend and would consider the conference schedule and her travel plans, aligning with her comprehensive information processing style. This step is essential for achieving her overall goal of attending the conference.</t>
+Facets: 1. Motivations
+Why: Deciding how many days to stay is a crucial part of making travel arrangements for the conference. Abi would naturally consider this as part of her planning process to ensure she attends all relevant sessions and events, aligning with her motivation to attend the conference effectively.</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The page is focused on accommodation details and doesn't provide direct guidance or links to the conference program. Abi might not feel confident about what to do next without explicit instructions or a clear path to find the program information, which is necessary to determine how many days to stay.</t>
+          <t>Answer: YES
+Facets: 1. Motivations, 2. Information Processing Style
+Why: The "Program" section is likely to contain the conference schedule, which is essential for Abi to determine how many days to stay. This aligns with her motivation to plan her trip effectively. The page layout is clear, making it easy for her to identify this as the next step in her planning process.</t>
         </is>
       </c>
     </row>
@@ -507,7 +507,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: After clicking "Program," Abi sees a dropdown menu with options like "Complete Program" and specific dates. This provides a clear path to understanding the conference schedule, helping her determine how many days to stay. This confirms she is making progress toward her goal and provides the necessary information.</t>
+Why: After clicking on "Program," Abi sees a dropdown with options like "Complete Program" and specific dates, which are relevant for determining how many days to stay. This confirms she is making progress toward her goal, as the information is clearly organized and directly related to her planning needs.</t>
         </is>
       </c>
     </row>
@@ -516,7 +516,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The dropdown menu under "Program" includes "Week Overview," which is relevant for understanding the conference schedule. This option aligns with Abi's goal of determining how many days to stay, and the page provides a clear path to the information she needs.</t>
+Why: The "Week Overview" option is clearly labeled and suggests it will provide a summary of the conference schedule. This aligns with Abi's motivation to determine how many days to stay and fits her comprehensive information processing style, making it a logical step for her to take.</t>
         </is>
       </c>
     </row>
@@ -525,7 +525,7 @@
         <is>
           <t>Answer: YES
 Facets: 1. Motivations, 2. Information Processing Style
-Why: The "Week Overview" page provides a clear schedule of events and sessions throughout the conference week. This helps Abi determine how many days to stay, confirming she is making progress toward her goal and providing all the necessary information.</t>
+Why: The "Week Overview" page provides a clear schedule of events and sessions throughout the conference week. This helps Abi determine how many days to stay, confirming she is making progress toward her goal. The information is organized and comprehensive, aligning with her need for detailed planning.</t>
         </is>
       </c>
     </row>
@@ -533,8 +533,8 @@
       <c r="A13" t="inlineStr">
         <is>
           <t>Answer: NO
-Facets: 4. Computer Self-Efficacy, 5. Learning Style
-Why: The "Week Overview" page already provides a comprehensive schedule, and there is no clear indication that clicking on "Tracks" would provide additional necessary information for determining how many days to stay. Abi might not feel confident about what to do next without explicit instructions or a clear path.</t>
+Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
+Why: The "Week Overview" page already provides a comprehensive schedule, which should help Abi determine how many days to stay. Going back to click on "Tracks" might not be necessary, and without clear guidance, Abi might not know if this action will provide additional useful information. This could lead to confusion, as she prefers clear and direct information paths.</t>
         </is>
       </c>
     </row>
@@ -543,7 +543,7 @@
         <is>
           <t>Answer: NO
 Facets: 2. Information Processing Style, 4. Computer Self-Efficacy
-Why: Clicking on "Tracks" leads to a dropdown with many options, but it doesn't directly provide information about the duration of the conference or help determine how many days to stay. Abi might not feel she is making progress toward her goal, as the information is not clearly aligned with her specific need.</t>
+Why: Clicking on "Tracks" leads to a dropdown with many options, but it doesn't directly provide additional information about how many days to stay. Abi might not immediately know if this action was helpful, as the information is not clearly related to her specific goal. This could lead to uncertainty, as she prefers clear and direct information paths.</t>
         </is>
       </c>
     </row>
